--- a/Assets/StreamingAssets/EnemyData.xlsx
+++ b/Assets/StreamingAssets/EnemyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\secrectFG\unity-excel-importer\Assets\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\unity-excel-importer\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013D4597-C746-4944-A785-8F435B46C42D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EDB5B7-A3AF-49A4-B7BF-73C7388374CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="3150" windowWidth="19170" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyDataEntities" sheetId="1" r:id="rId1"/>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -396,100 +396,100 @@
     <col min="4" max="4" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>100</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>44</v>
-      </c>
       <c r="D4">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>112221</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>111</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>